--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H2">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I2">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J2">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N2">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O2">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P2">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q2">
-        <v>882.5648565826388</v>
+        <v>357.9460137247867</v>
       </c>
       <c r="R2">
-        <v>7943.08370924375</v>
+        <v>3221.51412352308</v>
       </c>
       <c r="S2">
-        <v>0.6506292669700987</v>
+        <v>0.4527866304384204</v>
       </c>
       <c r="T2">
-        <v>0.6708183541555348</v>
+        <v>0.4775733421318979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H3">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I3">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J3">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P3">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q3">
-        <v>82.57968891974998</v>
+        <v>52.946746220445</v>
       </c>
       <c r="R3">
-        <v>743.21720027775</v>
+        <v>476.5207159840049</v>
       </c>
       <c r="S3">
-        <v>0.06087797635237569</v>
+        <v>0.0669754038168057</v>
       </c>
       <c r="T3">
-        <v>0.06276702566916198</v>
+        <v>0.07064181071436354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H4">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I4">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J4">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N4">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O4">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P4">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q4">
-        <v>12.27337041969444</v>
+        <v>16.37459378610611</v>
       </c>
       <c r="R4">
-        <v>110.46033377725</v>
+        <v>147.371344074955</v>
       </c>
       <c r="S4">
-        <v>0.009047962809598431</v>
+        <v>0.02071317143067676</v>
       </c>
       <c r="T4">
-        <v>0.009328721944311566</v>
+        <v>0.0218470640281959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H5">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I5">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J5">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N5">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O5">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P5">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q5">
-        <v>42.77230814258333</v>
+        <v>4.1480807943575</v>
       </c>
       <c r="R5">
-        <v>256.6338488555</v>
+        <v>24.888484766145</v>
       </c>
       <c r="S5">
-        <v>0.03153186452628983</v>
+        <v>0.005247147484948788</v>
       </c>
       <c r="T5">
-        <v>0.02167353416022823</v>
+        <v>0.003689593276520534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H6">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I6">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J6">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N6">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O6">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P6">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q6">
-        <v>9.778984034083333</v>
+        <v>20.35435120992778</v>
       </c>
       <c r="R6">
-        <v>88.01085630674999</v>
+        <v>183.18916088935</v>
       </c>
       <c r="S6">
-        <v>0.00720909422843327</v>
+        <v>0.02574739694178969</v>
       </c>
       <c r="T6">
-        <v>0.007432793098580396</v>
+        <v>0.02715687606937728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J7">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N7">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O7">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P7">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q7">
-        <v>30.96184788263611</v>
+        <v>19.58536813605067</v>
       </c>
       <c r="R7">
-        <v>278.656630943725</v>
+        <v>176.268313224456</v>
       </c>
       <c r="S7">
-        <v>0.02282516037395944</v>
+        <v>0.02477466574341209</v>
       </c>
       <c r="T7">
-        <v>0.02353342724144513</v>
+        <v>0.02613089504834902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J8">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P8">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q8">
         <v>2.897033285949</v>
@@ -948,10 +948,10 @@
         <v>26.073299573541</v>
       </c>
       <c r="S8">
-        <v>0.002135700995985084</v>
+        <v>0.003664625081762599</v>
       </c>
       <c r="T8">
-        <v>0.002201971998226898</v>
+        <v>0.003865236140614721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J9">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N9">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O9">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P9">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q9">
-        <v>0.4305703145865555</v>
+        <v>0.8959520013701111</v>
       </c>
       <c r="R9">
-        <v>3.875132831279</v>
+        <v>8.063568012331</v>
       </c>
       <c r="S9">
-        <v>0.000317417633468056</v>
+        <v>0.001133341543640831</v>
       </c>
       <c r="T9">
-        <v>0.0003272671324094799</v>
+        <v>0.001195383592155526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.972651</v>
       </c>
       <c r="I10">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J10">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N10">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O10">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P10">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q10">
-        <v>1.500523942713667</v>
+        <v>0.2269663197815</v>
       </c>
       <c r="R10">
-        <v>9.003143656282001</v>
+        <v>1.361797918689</v>
       </c>
       <c r="S10">
-        <v>0.001106190424009322</v>
+        <v>0.000287102834551718</v>
       </c>
       <c r="T10">
-        <v>0.0007603437444206346</v>
+        <v>0.0002018797243779674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.972651</v>
       </c>
       <c r="I11">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J11">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N11">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O11">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P11">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q11">
-        <v>0.3430630778596667</v>
+        <v>1.113708342407778</v>
       </c>
       <c r="R11">
-        <v>3.087567700736999</v>
+        <v>10.02337508167</v>
       </c>
       <c r="S11">
-        <v>0.0002529070551671586</v>
+        <v>0.001408794143012011</v>
       </c>
       <c r="T11">
-        <v>0.0002607547848125825</v>
+        <v>0.001485915179524258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H12">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I12">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J12">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N12">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O12">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P12">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q12">
-        <v>83.81495813320832</v>
+        <v>90.10860277518132</v>
       </c>
       <c r="R12">
-        <v>754.334623198875</v>
+        <v>810.9774249766319</v>
       </c>
       <c r="S12">
-        <v>0.06178862025221907</v>
+        <v>0.1139835870765088</v>
       </c>
       <c r="T12">
-        <v>0.06370592693463915</v>
+        <v>0.1202233435550033</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H13">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I13">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J13">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P13">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q13">
-        <v>7.842384746954999</v>
+        <v>13.328706398403</v>
       </c>
       <c r="R13">
-        <v>70.58146272259499</v>
+        <v>119.958357585627</v>
       </c>
       <c r="S13">
-        <v>0.005781427847655347</v>
+        <v>0.01686025218002868</v>
       </c>
       <c r="T13">
-        <v>0.005960826096086717</v>
+        <v>0.01778322600869726</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H14">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I14">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J14">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N14">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O14">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P14">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q14">
-        <v>1.165571028811667</v>
+        <v>4.122106995195222</v>
       </c>
       <c r="R14">
-        <v>10.490139259305</v>
+        <v>37.098962956757</v>
       </c>
       <c r="S14">
-        <v>0.0008592622042687355</v>
+        <v>0.005214291723042149</v>
       </c>
       <c r="T14">
-        <v>0.0008859251910690644</v>
+        <v>0.005499735543456166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H15">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I15">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J15">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N15">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O15">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P15">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q15">
-        <v>4.061978209865</v>
+        <v>1.0442294375305</v>
       </c>
       <c r="R15">
-        <v>24.37186925919</v>
+        <v>6.265376625183</v>
       </c>
       <c r="S15">
-        <v>0.002994501633983335</v>
+        <v>0.001320906254839796</v>
       </c>
       <c r="T15">
-        <v>0.002058280867053872</v>
+        <v>0.0009288107206345081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H16">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I16">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J16">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N16">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O16">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P16">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q16">
-        <v>0.9286854459349999</v>
+        <v>5.123963049165556</v>
       </c>
       <c r="R16">
-        <v>8.358169013414999</v>
+        <v>46.11566744249</v>
       </c>
       <c r="S16">
-        <v>0.0006846294937168864</v>
+        <v>0.006481597432473346</v>
       </c>
       <c r="T16">
-        <v>0.0007058736111276182</v>
+        <v>0.006836416846457238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H17">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I17">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J17">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N17">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O17">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P17">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q17">
-        <v>57.47256256191666</v>
+        <v>92.057498070344</v>
       </c>
       <c r="R17">
-        <v>344.8353753715</v>
+        <v>552.3449884220639</v>
       </c>
       <c r="S17">
-        <v>0.0423689329703688</v>
+        <v>0.1164488575361276</v>
       </c>
       <c r="T17">
-        <v>0.02912242995653127</v>
+        <v>0.0818823795321597</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H18">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I18">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J18">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P18">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q18">
-        <v>5.37758364429</v>
+        <v>13.616983570509</v>
       </c>
       <c r="R18">
-        <v>32.26550186574</v>
+        <v>81.701901423054</v>
       </c>
       <c r="S18">
-        <v>0.003964369619364268</v>
+        <v>0.01722491066031714</v>
       </c>
       <c r="T18">
-        <v>0.002724922920350133</v>
+        <v>0.01211189789181107</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H19">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I19">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J19">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N19">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O19">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P19">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q19">
-        <v>0.7992410348433332</v>
+        <v>4.211261134552333</v>
       </c>
       <c r="R19">
-        <v>4.79544620906</v>
+        <v>25.267566807314</v>
       </c>
       <c r="S19">
-        <v>0.0005892027138334735</v>
+        <v>0.005327067954097433</v>
       </c>
       <c r="T19">
-        <v>0.0004049904862086997</v>
+        <v>0.003745790291464947</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H20">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I20">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J20">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N20">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O20">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P20">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q20">
-        <v>2.78532975487</v>
+        <v>1.0668143381415</v>
       </c>
       <c r="R20">
-        <v>11.14131901948</v>
+        <v>4.267257352566</v>
       </c>
       <c r="S20">
-        <v>0.002053352842190115</v>
+        <v>0.001349475202821722</v>
       </c>
       <c r="T20">
-        <v>0.0009409193659978313</v>
+        <v>0.0006325995409180951</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H21">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I21">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J21">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N21">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O21">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P21">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q21">
-        <v>0.6368067655299999</v>
+        <v>5.234785625163334</v>
       </c>
       <c r="R21">
-        <v>3.820840593179999</v>
+        <v>31.40871375098</v>
       </c>
       <c r="S21">
-        <v>0.0004694557187136175</v>
+        <v>0.006621783323190153</v>
       </c>
       <c r="T21">
-        <v>0.0003226819824679518</v>
+        <v>0.004656184583699889</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H22">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I22">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J22">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N22">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O22">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P22">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q22">
-        <v>107.5317702447278</v>
+        <v>66.66290409317067</v>
       </c>
       <c r="R22">
-        <v>967.78593220255</v>
+        <v>599.9661368385359</v>
       </c>
       <c r="S22">
-        <v>0.07927272010493125</v>
+        <v>0.08432576579213955</v>
       </c>
       <c r="T22">
-        <v>0.08173256004585214</v>
+        <v>0.08894197639667449</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H23">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I23">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J23">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.217391</v>
       </c>
       <c r="O23">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P23">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q23">
-        <v>10.061515671702</v>
+        <v>9.860659792268999</v>
       </c>
       <c r="R23">
-        <v>90.553641045318</v>
+        <v>88.745938130421</v>
       </c>
       <c r="S23">
-        <v>0.007417377337497316</v>
+        <v>0.01247331929969171</v>
       </c>
       <c r="T23">
-        <v>0.007647539252056398</v>
+        <v>0.01315614107170999</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H24">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I24">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J24">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N24">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O24">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P24">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q24">
-        <v>1.495388399226889</v>
+        <v>3.049560361823444</v>
       </c>
       <c r="R24">
-        <v>13.458495593042</v>
+        <v>27.446043256411</v>
       </c>
       <c r="S24">
-        <v>0.001102404487067267</v>
+        <v>0.003857565408202202</v>
       </c>
       <c r="T24">
-        <v>0.001136612201710451</v>
+        <v>0.004068738519738772</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H25">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I25">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J25">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N25">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O25">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P25">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q25">
-        <v>5.211381325372667</v>
+        <v>0.7725274247015</v>
       </c>
       <c r="R25">
-        <v>31.268287952236</v>
+        <v>4.635164548209</v>
       </c>
       <c r="S25">
-        <v>0.003841844807596182</v>
+        <v>0.0009772146528800438</v>
       </c>
       <c r="T25">
-        <v>0.002640705074903123</v>
+        <v>0.0006871399409537936</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H26">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I26">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J26">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N26">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O26">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P26">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q26">
-        <v>1.191472169480667</v>
+        <v>3.790739694141111</v>
       </c>
       <c r="R26">
-        <v>10.723249525326</v>
+        <v>34.11665724727</v>
       </c>
       <c r="S26">
-        <v>0.0008783565972093442</v>
+        <v>0.004795126044619133</v>
       </c>
       <c r="T26">
-        <v>0.0009056120848137427</v>
+        <v>0.005057623651244081</v>
       </c>
     </row>
   </sheetData>
